--- a/techniqo/data_new_ticker/HATSUN.xlsx
+++ b/techniqo/data_new_ticker/HATSUN.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,7 +25,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +47,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -63,7 +72,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -426,10 +435,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1396"/>
+  <dimension ref="A1:G1398"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A1374" workbookViewId="0">
+      <selection activeCell="K1390" sqref="K1390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -49246,6 +49255,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1397" t="n">
+        <v>853.7</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>878</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>853.6</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>866.35</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>69228</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1398" t="n">
+        <v>870</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>874.9</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>835</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>840.15</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>53071</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/HATSUN.xlsx
+++ b/techniqo/data_new_ticker/HATSUN.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1398"/>
+  <dimension ref="A1:G1400"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1374" workbookViewId="0">
       <selection activeCell="K1390" sqref="K1390"/>
@@ -49305,6 +49305,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1399" t="n">
+        <v>844.95</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>857.8</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>844.95</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>847.45</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>23878</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1400" t="n">
+        <v>851.7</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>857</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>827</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>835.3</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>30965</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
